--- a/調査資料/プロジェクトの進め方.xlsx
+++ b/調査資料/プロジェクトの進め方.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ユーザー\Documents\Mine\private_folder\学習記録\CICD\調査資料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ユーザー\Documents\Mine\projects\flea-market\flea-market-front\調査資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9743F55-2D38-443D-A3B3-CA40222E2E5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D4AC2D-C931-4194-B388-78B1EF450C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3E7B63C8-8C58-418A-A2EB-E8D1D06D2513}"/>
+    <workbookView xWindow="6000" yWindow="1950" windowWidth="14580" windowHeight="8970" xr2:uid="{3E7B63C8-8C58-418A-A2EB-E8D1D06D2513}"/>
   </bookViews>
   <sheets>
     <sheet name="資料" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>フェーズ（開発プロセス）</t>
     <phoneticPr fontId="1"/>
@@ -48,12 +48,6 @@
   </si>
   <si>
     <t>要件確定後</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・システム構成図
-・ER図（MySQL）
-・API設計書（エンドポイント、リクエスト/レスポンス定義）</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -155,6 +149,39 @@
   </si>
   <si>
     <t>・要件定義書（機能一覧、非機能要件、API概要）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>技術選定</t>
+    <rPh sb="0" eb="2">
+      <t>ギジュツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アーキテクチャ設計</t>
+    <rPh sb="7" eb="9">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ER図（MySQL）
+・API設計書（エンドポイント、リクエスト/レスポンス定義）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全体構造パターンの成果物は、「図」と「判断理由」を残すのが基本
+具体的には
+・システム構成図
+・レイヤー構成図
+・コンポーネント図／モジュール図
+・デプロイメント構成図
+・アーキテクチャ決定記録（ADR）
+・非機能要件との対応表</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -522,9 +549,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D09C164D-ACAE-4297-9310-0F4D8EB4887D}">
-  <dimension ref="B2:D12"/>
+  <dimension ref="B2:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -552,106 +581,122 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" ht="56.25" x14ac:dyDescent="0.4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="150" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="B5" t="s">
+      <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="1" t="s">
+    </row>
+    <row r="8" spans="2:4" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="B6" t="s">
+      <c r="C8" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D8" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
         <v>29</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D14" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
